--- a/Finflux Automation Excels/Client/5039-CompondingPenalityCharge-BeforeGracePeriod-AfterGracePeriod-2ndInstallment.xlsx
+++ b/Finflux Automation Excels/Client/5039-CompondingPenalityCharge-BeforeGracePeriod-AfterGracePeriod-2ndInstallment.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Modify Transaction1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="46">
   <si>
     <t>OverDueTillDate</t>
   </si>
@@ -168,7 +168,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,6 +195,29 @@
       <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -238,7 +261,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="15" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -260,7 +283,17 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -589,7 +622,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -634,7 +667,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
-        <v>195.49</v>
+        <v>195.53</v>
       </c>
       <c r="B3" s="6">
         <v>0</v>
@@ -646,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="6">
-        <v>195.49</v>
+        <v>195.53</v>
       </c>
       <c r="F3" s="6">
         <v>89.33</v>
@@ -896,7 +929,7 @@
   <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1038,13 +1071,13 @@
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6">
-        <v>841.23</v>
+        <v>841.22</v>
       </c>
       <c r="G4" s="7">
-        <v>3322.06</v>
+        <v>3322.07</v>
       </c>
       <c r="H4" s="6">
-        <v>46.49</v>
+        <v>46.5</v>
       </c>
       <c r="I4" s="6">
         <v>0</v>
@@ -1083,13 +1116,13 @@
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6">
-        <v>838.1</v>
+        <v>838.08</v>
       </c>
       <c r="G5" s="7">
-        <v>2483.96</v>
+        <v>2483.9899999999998</v>
       </c>
       <c r="H5" s="6">
-        <v>49.62</v>
+        <v>49.64</v>
       </c>
       <c r="I5" s="6">
         <v>0</v>
@@ -1128,13 +1161,13 @@
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6">
-        <v>863.24</v>
+        <v>863.23</v>
       </c>
       <c r="G6" s="7">
-        <v>1620.72</v>
+        <v>1620.76</v>
       </c>
       <c r="H6" s="6">
-        <v>24.48</v>
+        <v>24.49</v>
       </c>
       <c r="I6" s="6">
         <v>0</v>
@@ -1176,7 +1209,7 @@
         <v>871.21</v>
       </c>
       <c r="G7" s="6">
-        <v>749.51</v>
+        <v>749.55</v>
       </c>
       <c r="H7" s="6">
         <v>16.510000000000002</v>
@@ -1218,7 +1251,7 @@
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6">
-        <v>749.51</v>
+        <v>749.55</v>
       </c>
       <c r="G8" s="6">
         <v>0</v>
@@ -1233,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="6">
-        <v>756.89</v>
+        <v>756.93</v>
       </c>
       <c r="L8" s="6">
         <v>0</v>
@@ -1247,7 +1280,7 @@
       </c>
       <c r="P8" s="6"/>
       <c r="Q8" s="6">
-        <v>756.89</v>
+        <v>756.93</v>
       </c>
     </row>
   </sheetData>
@@ -1257,10 +1290,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1302,7 +1335,7 @@
     </row>
     <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
-        <v>689</v>
+        <v>203</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>30</v>
@@ -1314,19 +1347,19 @@
         <v>31</v>
       </c>
       <c r="E2" s="6">
-        <v>51.88</v>
+        <v>51.91</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
       <c r="J2" s="7">
-        <v>5142.6899999999996</v>
+        <v>5145.3999999999996</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
-        <v>688</v>
+        <v>202</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>30</v>
@@ -1338,7 +1371,7 @@
         <v>32</v>
       </c>
       <c r="E3" s="6">
-        <v>51.88</v>
+        <v>0.03</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
@@ -1350,19 +1383,19 @@
     </row>
     <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
-        <v>690</v>
+        <v>198</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C4" s="8">
-        <v>42063</v>
+        <v>42094</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>32</v>
       </c>
       <c r="E4" s="6">
-        <v>46.43</v>
+        <v>51.88</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -1374,7 +1407,7 @@
     </row>
     <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
-        <v>687</v>
+        <v>201</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>30</v>
@@ -1386,55 +1419,55 @@
         <v>31</v>
       </c>
       <c r="E5" s="6">
-        <v>46.43</v>
+        <v>49.11</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
       <c r="J5" s="7">
-        <v>5090.8100000000004</v>
+        <v>5093.49</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
-        <v>685</v>
+        <v>200</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C6" s="8">
-        <v>42035</v>
+        <v>42063</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E6" s="6">
-        <v>44.38</v>
+        <v>2.68</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
-      <c r="J6" s="7">
-        <v>5044.38</v>
+      <c r="J6" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
-        <v>684</v>
+        <v>196</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C7" s="8">
-        <v>42035</v>
+        <v>42063</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>32</v>
       </c>
       <c r="E7" s="6">
-        <v>44.38</v>
+        <v>46.43</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
@@ -1446,25 +1479,73 @@
     </row>
     <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
-        <v>683</v>
+        <v>195</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C8" s="8">
+        <v>42035</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="6">
+        <v>44.38</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="7">
+        <v>5044.38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>194</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="8">
+        <v>42035</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="6">
+        <v>44.38</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>193</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="8">
         <v>42009</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D10" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E10" s="5">
         <v>5000</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5">
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5">
         <v>5000</v>
       </c>
     </row>
@@ -1477,91 +1558,93 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="9.140625" style="10"/>
+    <col min="5" max="5" width="9.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4" t="s">
+      <c r="C1" s="9"/>
+      <c r="D1" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="9" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
     </row>
     <row r="3" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6" t="s">
+      <c r="C3" s="11"/>
+      <c r="D3" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="12">
         <v>42051</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="K3" s="9"/>
+      <c r="K3" s="13"/>
     </row>
   </sheetData>
   <hyperlinks>
